--- a/rozwiazania/Szymon_Grzebyta/Task1.xlsx
+++ b/rozwiazania/Szymon_Grzebyta/Task1.xlsx
@@ -469,7 +469,7 @@
         <v>2.99</v>
       </c>
       <c r="D2" t="n">
-        <v>2.989999999999419</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="3">
@@ -485,7 +485,7 @@
         <v>3.84</v>
       </c>
       <c r="D3" t="n">
-        <v>3.839999999998012</v>
+        <v>3.84</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         <v>11.95</v>
       </c>
       <c r="D4" t="n">
-        <v>11.95000000000478</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="5">
@@ -517,7 +517,7 @@
         <v>11.99</v>
       </c>
       <c r="D5" t="n">
-        <v>11.9899999999974</v>
+        <v>11.99</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>14.95</v>
       </c>
       <c r="D6" t="n">
-        <v>14.9500000000061</v>
+        <v>14.95</v>
       </c>
     </row>
     <row r="7">
@@ -549,7 +549,7 @@
         <v>99.98999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>99.98999999999184</v>
+        <v>99.98999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -565,7 +565,7 @@
         <v>109.99</v>
       </c>
       <c r="D8" t="n">
-        <v>109.9899999999941</v>
+        <v>109.99</v>
       </c>
     </row>
     <row r="9">
@@ -581,7 +581,7 @@
         <v>149.99</v>
       </c>
       <c r="D9" t="n">
-        <v>149.9899999999921</v>
+        <v>149.99</v>
       </c>
     </row>
     <row r="10">
@@ -629,7 +629,7 @@
         <v>379.99</v>
       </c>
       <c r="D12" t="n">
-        <v>379.9900000000163</v>
+        <v>379.99</v>
       </c>
     </row>
     <row r="13">
@@ -645,7 +645,7 @@
         <v>389.99</v>
       </c>
       <c r="D13" t="n">
-        <v>389.9900000000232</v>
+        <v>389.99</v>
       </c>
     </row>
     <row r="14">
@@ -741,7 +741,7 @@
         <v>999.99</v>
       </c>
       <c r="D19" t="n">
-        <v>999.9900000001056</v>
+        <v>999.99</v>
       </c>
     </row>
     <row r="20">
